--- a/data/교통량증감률(2021-2024).xlsx
+++ b/data/교통량증감률(2021-2024).xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MBCAcademy_PJ1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFC1153-4E83-4F0D-B046-4D034411239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA97E7-8C91-42AC-81A3-3345979200DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CB6CD010-99D5-44A8-A0CD-22251E1AAB02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{CB6CD010-99D5-44A8-A0CD-22251E1AAB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="교통량증감률(2021-2024)" sheetId="2" r:id="rId2"/>
+    <sheet name="21-22" sheetId="5" r:id="rId3"/>
+    <sheet name="22-23" sheetId="4" r:id="rId4"/>
+    <sheet name="23-24" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
   <si>
     <t>유형</t>
   </si>
@@ -112,6 +116,168 @@
   </si>
   <si>
     <t>23-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>22증감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수치</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>22증감률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23증감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수치</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23증감률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>24증감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수치</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>24증감률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +302,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -179,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,8 +389,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87A3A8-70C8-4CC3-80F7-AF4B4DA38A8F}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1570,4 +1773,899 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC45E4-ED31-4CCC-9510-8F5D24BF52DA}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9932</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9965</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2-C2</f>
+        <v>33</v>
+      </c>
+      <c r="F2" s="8">
+        <f>((D2-C2)/C2)*100</f>
+        <v>0.3322593636729762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>946</v>
+      </c>
+      <c r="D3" s="2">
+        <v>953</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E7" si="0">D3-C3</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F7" si="1">((D3-C3)/C3)*100</f>
+        <v>0.73995771670190269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2845</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2850</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.17574692442882248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1843</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1848</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.27129679869777534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3035</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3036</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2948929159802305E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1263</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1278</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1876484560570071</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAD5D79-DF84-4FF1-BA7C-4638B65929FC}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10188</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10265</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2-C2</f>
+        <v>77</v>
+      </c>
+      <c r="F2" s="8">
+        <f>((D2-C2)/C2)*100</f>
+        <v>0.7557911268158618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>953</v>
+      </c>
+      <c r="D3" s="2">
+        <v>974</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E7" si="0">D3-C3</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F7" si="1">((D3-C3)/C3)*100</f>
+        <v>2.2035676810073452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2920</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2951</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0616438356164384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1902</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1895</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.36803364879074657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3036</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3063</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8893280632411068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1377</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1382</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.36310820624546114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511326CC-392A-4720-B35C-00090F91C061}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>18772</v>
+      </c>
+      <c r="D2">
+        <v>18708</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>-64</v>
+      </c>
+      <c r="F2" s="8">
+        <f>((D2-C2)/C2)*100</f>
+        <v>-0.34093330492222457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>1747</v>
+      </c>
+      <c r="D3">
+        <v>1742</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">D3-C3</f>
+        <v>-5</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F7" si="1">((D3-C3)/C3)*100</f>
+        <v>-0.28620492272467085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>5554</v>
+      </c>
+      <c r="D4">
+        <v>5545</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.16204537270435723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>3517</v>
+      </c>
+      <c r="D5">
+        <v>3492</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.71083309638896786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>5261</v>
+      </c>
+      <c r="D6">
+        <v>5237</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.45618703668504085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2693</v>
+      </c>
+      <c r="D7">
+        <v>2692</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.7133308577794281E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5131EE23-67C2-45D4-B303-20F9D5F60F8D}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="A1:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9932</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9965</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10188</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10265</v>
+      </c>
+      <c r="G2" s="10">
+        <v>18772</v>
+      </c>
+      <c r="H2" s="10">
+        <v>18708</v>
+      </c>
+      <c r="I2" s="11">
+        <f>D2-C2</f>
+        <v>33</v>
+      </c>
+      <c r="J2" s="12">
+        <f>((D2-C2)/C2)*100</f>
+        <v>0.3322593636729762</v>
+      </c>
+      <c r="K2" s="11">
+        <f>F2-E2</f>
+        <v>77</v>
+      </c>
+      <c r="L2" s="12">
+        <f>((F2-E2)/E2)*100</f>
+        <v>0.7557911268158618</v>
+      </c>
+      <c r="M2" s="11">
+        <f>H2-G2</f>
+        <v>-64</v>
+      </c>
+      <c r="N2" s="12">
+        <f>((H2-G2)/G2)*100</f>
+        <v>-0.34093330492222457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>946</v>
+      </c>
+      <c r="D3" s="2">
+        <v>953</v>
+      </c>
+      <c r="E3" s="2">
+        <v>953</v>
+      </c>
+      <c r="F3" s="2">
+        <v>974</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1747</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1742</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I7" si="0">D3-C3</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J7" si="1">((D3-C3)/C3)*100</f>
+        <v>0.73995771670190269</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K7" si="2">F3-E3</f>
+        <v>21</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L7" si="3">((F3-E3)/E3)*100</f>
+        <v>2.2035676810073452</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" ref="M3:M7" si="4">H3-G3</f>
+        <v>-5</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N7" si="5">((H3-G3)/G3)*100</f>
+        <v>-0.28620492272467085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2845</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2850</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2920</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2951</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5554</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5545</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>0.17574692442882248</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0616438356164384</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="N4" s="12">
+        <f t="shared" si="5"/>
+        <v>-0.16204537270435723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1843</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1848</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1902</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1895</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3517</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3492</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.27129679869777534</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.36803364879074657</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="4"/>
+        <v>-25</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="5"/>
+        <v>-0.71083309638896786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3035</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3036</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3036</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3063</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5261</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5237</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
+        <v>3.2948929159802305E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8893280632411068</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="5"/>
+        <v>-0.45618703668504085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1263</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1278</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1377</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1382</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2693</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2692</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1876484560570071</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.36310820624546114</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.7133308577794281E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>